--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,12 +110,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -185,29 +179,29 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="62.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="48">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>commit</t>
   </si>
@@ -35,6 +35,12 @@
     <t>说明</t>
   </si>
   <si>
+    <t>综合频率</t>
+  </si>
+  <si>
+    <t>综合面积</t>
+  </si>
+  <si>
     <t>仿真周期数</t>
   </si>
   <si>
@@ -47,12 +53,6 @@
     <t>IPC</t>
   </si>
   <si>
-    <t>综合频率</t>
-  </si>
-  <si>
-    <t>综合面积</t>
-  </si>
-  <si>
     <t>取数据计数器</t>
   </si>
   <si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>460MHz</t>
-  </si>
-  <si>
-    <t>添加简易缓存</t>
   </si>
 </sst>
 </file>
@@ -775,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -799,24 +796,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,16 +826,12 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1187,13 +1180,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.5833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5833333333333" style="3" customWidth="1"/>
@@ -1201,15 +1194,15 @@
     <col min="6" max="6" width="14.5833333333333" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.5833333333333" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="11" max="15" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="18" max="18" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="19" max="24" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="25" max="26" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="27" max="30" width="14.5833333333333" style="7" customWidth="1"/>
+    <col min="9" max="13" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="15" max="19" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="21" max="21" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="22" max="22" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="23" max="28" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="29" max="30" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="31" max="34" width="14.5833333333333" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:30">
@@ -1219,70 +1212,70 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="16" t="s">
@@ -1295,469 +1288,99 @@
         <v>26</v>
       </c>
       <c r="AB1" s="18"/>
-      <c r="AC1" s="21"/>
+      <c r="AC1" s="20"/>
       <c r="AD1" s="18"/>
     </row>
-    <row r="2" ht="50" customHeight="1" spans="1:30">
+    <row r="2" ht="50" customHeight="1" spans="1:34">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11">
+        <v>19926.06</v>
+      </c>
+      <c r="E2" s="14">
         <v>7916089010</v>
       </c>
-      <c r="D2" s="11">
+      <c r="F2" s="14">
         <v>196243122</v>
       </c>
-      <c r="E2" s="14">
+      <c r="G2" s="11">
         <v>40.34</v>
       </c>
-      <c r="F2" s="15">
+      <c r="H2" s="15">
         <v>0.024789</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="14">
-        <v>19926.06</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="I2" s="14">
         <v>15954862</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="11">
         <v>48.541034</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="14">
         <v>4071016</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="14">
         <v>2</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="14">
         <v>52759794</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="14">
         <v>2</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="14">
         <v>15954862</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="11">
         <v>52.541034</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="14">
         <v>7241375</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="11">
         <v>28.286903</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="14">
         <v>116216072</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="14">
         <v>2</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="14">
         <v>2</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="14">
         <v>2</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="14">
         <v>1</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="14">
         <v>2</v>
       </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="14">
-        <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/$D2</f>
-        <v>7.07904957310521</v>
-      </c>
-      <c r="AA2" s="14">
-        <f>$E2-$Z2</f>
-        <v>33.2609504268948</v>
-      </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="20"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="11" t="e">
+        <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AA2" s="11" t="e">
+        <f>#REF!-$Z2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
     </row>
-    <row r="3" ht="50" customHeight="1" spans="1:27">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="11">
-        <v>77640854</v>
-      </c>
-      <c r="D3" s="11">
-        <v>726877</v>
-      </c>
-      <c r="E3" s="14">
-        <v>106.814295</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0.009362</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="14">
-        <v>30620.058</v>
-      </c>
-      <c r="I3" s="11">
-        <v>107357</v>
-      </c>
-      <c r="J3" s="14">
-        <v>472.835167</v>
-      </c>
-      <c r="K3" s="11">
-        <v>23256</v>
-      </c>
-      <c r="L3" s="11">
-        <v>2</v>
-      </c>
-      <c r="M3" s="11">
-        <v>141029</v>
-      </c>
-      <c r="N3" s="11">
-        <v>2</v>
-      </c>
-      <c r="O3" s="11">
-        <v>107357</v>
-      </c>
-      <c r="P3" s="14">
-        <v>476.835167</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>89995</v>
-      </c>
-      <c r="R3" s="14">
-        <v>27.45947</v>
-      </c>
-      <c r="S3" s="11">
-        <v>365237</v>
-      </c>
-      <c r="T3" s="11">
-        <v>2</v>
-      </c>
-      <c r="U3" s="11">
-        <v>1</v>
-      </c>
-      <c r="V3" s="11">
-        <v>2</v>
-      </c>
-      <c r="W3" s="11">
-        <v>2</v>
-      </c>
-      <c r="X3" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="14">
-        <f>($K3*$L3+$M3*$N3+$O3*$P3+$Q3*$R3+$S3*$T3+$U3*$V3+$W3*$X3)/$D3</f>
-        <v>75.2835184305859</v>
-      </c>
-      <c r="AA3" s="14">
-        <f>$E3-$Z3</f>
-        <v>31.5307765694141</v>
-      </c>
-    </row>
-    <row r="4" ht="50" customHeight="1" spans="1:24">
-      <c r="A4" s="8"/>
-      <c r="C4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="15"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-    </row>
-    <row r="5" ht="50" customHeight="1" spans="1:24">
-      <c r="A5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-    </row>
-    <row r="6" ht="50" customHeight="1" spans="1:24">
-      <c r="A6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-    </row>
-    <row r="7" ht="50" customHeight="1" spans="1:24">
-      <c r="A7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-    </row>
-    <row r="8" ht="50" customHeight="1" spans="1:24">
-      <c r="A8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-    </row>
-    <row r="9" ht="50" customHeight="1" spans="1:24">
-      <c r="A9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-    </row>
-    <row r="10" ht="50" customHeight="1" spans="1:24">
-      <c r="A10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-    </row>
-    <row r="11" ht="50" customHeight="1" spans="1:24">
-      <c r="A11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-    </row>
-    <row r="12" ht="50" customHeight="1" spans="1:24">
-      <c r="A12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-    </row>
-    <row r="13" ht="50" customHeight="1" spans="1:24">
-      <c r="A13" s="8"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-    </row>
-    <row r="14" ht="50" customHeight="1" spans="1:24">
-      <c r="A14" s="8"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" ht="50" customHeight="1" spans="1:24">
-      <c r="A15" s="8"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-    </row>
-    <row r="16" ht="50" customHeight="1"/>
-    <row r="17" ht="50" customHeight="1"/>
-    <row r="18" ht="50" customHeight="1"/>
-    <row r="19" ht="50" customHeight="1"/>
-    <row r="20" ht="50" customHeight="1"/>
-    <row r="21" ht="50" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -1,311 +1,199 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20030" windowHeight="10680"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20030" windowHeight="10680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>commit</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>综合频率</t>
-  </si>
-  <si>
-    <t>综合面积</t>
-  </si>
-  <si>
-    <t>仿真周期数</t>
-  </si>
-  <si>
-    <t>指令数</t>
-  </si>
-  <si>
-    <t>CPI</t>
-  </si>
-  <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>取数据计数器</t>
-  </si>
-  <si>
-    <t>取数据平均周期</t>
-  </si>
-  <si>
-    <t>JMP指令计数器</t>
-  </si>
-  <si>
-    <t>JPM指令平均执行周期</t>
-  </si>
-  <si>
-    <t>BRANCH指令计数器</t>
-  </si>
-  <si>
-    <t>BRANCH指令平均执行周期</t>
-  </si>
-  <si>
-    <t>LOAD指令计数器</t>
-  </si>
-  <si>
-    <t>LOAD指令平均执行周期</t>
-  </si>
-  <si>
-    <t>STORE指令计数器</t>
-  </si>
-  <si>
-    <t>STORE指令平均执行周期</t>
-  </si>
-  <si>
-    <t>AL指令计数器</t>
-  </si>
-  <si>
-    <t>AL指令平均执行周期</t>
-  </si>
-  <si>
-    <t>CSR指令计数器</t>
-  </si>
-  <si>
-    <t>CSR指令平均执行周期</t>
-  </si>
-  <si>
-    <t>ECALL/EBREAK指令计数器</t>
-  </si>
-  <si>
-    <t>ECALL/EBREAK指令平均执行周期</t>
-  </si>
-  <si>
-    <t>后续为计算结果</t>
-  </si>
-  <si>
-    <t>平均指令执行周期</t>
-  </si>
-  <si>
-    <t>平均指令取值周期</t>
-  </si>
-  <si>
-    <t>ce55f5540399bdb8a3d1741edd4e8ae37753ab7a</t>
-  </si>
-  <si>
-    <t>添加APBDelayer</t>
-  </si>
-  <si>
-    <t>460MHz</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000000_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="23">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FFFFFF00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="文泉驿微米黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -627,210 +515,219 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -885,11 +782,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1176,213 +1136,381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="14.5833333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="9" max="13" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="15" max="19" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="20" max="20" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="21" max="21" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="22" max="22" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="23" max="28" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="29" max="30" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="31" max="34" width="14.5833333333333" style="7" customWidth="1"/>
+    <col width="14.5833333333333" customWidth="1" style="2" min="1" max="1"/>
+    <col width="14.5833333333333" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.5833333333333" customWidth="1" style="4" min="3" max="5"/>
+    <col width="14.5833333333333" customWidth="1" style="21" min="6" max="6"/>
+    <col width="14.5833333333333" customWidth="1" style="3" min="7" max="7"/>
+    <col width="14.5833333333333" customWidth="1" style="6" min="8" max="8"/>
+    <col width="14.5833333333333" customWidth="1" style="4" min="9" max="13"/>
+    <col width="14.5833333333333" customWidth="1" style="6" min="14" max="14"/>
+    <col width="14.5833333333333" customWidth="1" style="4" min="15" max="19"/>
+    <col width="14.5833333333333" customWidth="1" style="6" min="20" max="20"/>
+    <col width="14.5833333333333" customWidth="1" style="4" min="21" max="21"/>
+    <col width="14.5833333333333" customWidth="1" style="6" min="22" max="22"/>
+    <col width="14.5833333333333" customWidth="1" style="4" min="23" max="28"/>
+    <col width="14.5833333333333" customWidth="1" style="3" min="29" max="30"/>
+    <col width="14.5833333333333" customWidth="1" style="7" min="31" max="34"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:30">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" ht="50" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>commit</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>综合频率</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>综合面积</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="inlineStr">
+        <is>
+          <t>仿真周期数</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>指令数</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>CPI</t>
+        </is>
+      </c>
+      <c r="H1" s="22" t="inlineStr">
+        <is>
+          <t>IPC</t>
+        </is>
+      </c>
+      <c r="I1" s="12" t="inlineStr">
+        <is>
+          <t>取数据计数器</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>取数据平均周期</t>
+        </is>
+      </c>
+      <c r="K1" s="12" t="inlineStr">
+        <is>
+          <t>JMP指令计数器</t>
+        </is>
+      </c>
+      <c r="L1" s="12" t="inlineStr">
+        <is>
+          <t>JPM指令平均执行周期</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="inlineStr">
+        <is>
+          <t>BRANCH指令计数器</t>
+        </is>
+      </c>
+      <c r="N1" s="12" t="inlineStr">
+        <is>
+          <t>BRANCH指令平均执行周期</t>
+        </is>
+      </c>
+      <c r="O1" s="12" t="inlineStr">
+        <is>
+          <t>LOAD指令计数器</t>
+        </is>
+      </c>
+      <c r="P1" s="9" t="inlineStr">
+        <is>
+          <t>LOAD指令平均执行周期</t>
+        </is>
+      </c>
+      <c r="Q1" s="12" t="inlineStr">
+        <is>
+          <t>STORE指令计数器</t>
+        </is>
+      </c>
+      <c r="R1" s="9" t="inlineStr">
+        <is>
+          <t>STORE指令平均执行周期</t>
+        </is>
+      </c>
+      <c r="S1" s="12" t="inlineStr">
+        <is>
+          <t>AL指令计数器</t>
+        </is>
+      </c>
+      <c r="T1" s="12" t="inlineStr">
+        <is>
+          <t>AL指令平均执行周期</t>
+        </is>
+      </c>
+      <c r="U1" s="12" t="inlineStr">
+        <is>
+          <t>CSR指令计数器</t>
+        </is>
+      </c>
+      <c r="V1" s="12" t="inlineStr">
+        <is>
+          <t>CSR指令平均执行周期</t>
+        </is>
+      </c>
+      <c r="W1" s="12" t="inlineStr">
+        <is>
+          <t>ECALL/EBREAK指令计数器</t>
+        </is>
+      </c>
+      <c r="X1" s="12" t="inlineStr">
+        <is>
+          <t>ECALL/EBREAK指令平均执行周期</t>
+        </is>
+      </c>
+      <c r="Y1" s="16" t="inlineStr">
+        <is>
+          <t>后续为计算结果</t>
+        </is>
+      </c>
+      <c r="Z1" s="17" t="inlineStr">
+        <is>
+          <t>平均指令执行周期</t>
+        </is>
+      </c>
+      <c r="AA1" s="17" t="inlineStr">
+        <is>
+          <t>平均指令取值周期</t>
+        </is>
+      </c>
+      <c r="AB1" s="18" t="n"/>
+      <c r="AC1" s="20" t="n"/>
+      <c r="AD1" s="18" t="n"/>
+    </row>
+    <row r="2" ht="50" customHeight="1">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>ce55f5540399bdb8a3d1741edd4e8ae37753ab7a</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>添加APBDelayer</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr">
+        <is>
+          <t>460MHz</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>19926.06</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>7916089010</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <v>196243122</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>40.34</v>
+      </c>
+      <c r="H2" s="23" t="n">
+        <v>0.024789</v>
+      </c>
+      <c r="I2" s="14" t="n">
+        <v>15954862</v>
+      </c>
+      <c r="J2" s="11" t="n">
+        <v>48.541034</v>
+      </c>
+      <c r="K2" s="14" t="n">
+        <v>4071016</v>
+      </c>
+      <c r="L2" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" s="14" t="n">
+        <v>52759794</v>
+      </c>
+      <c r="N2" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" s="14" t="n">
+        <v>15954862</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>52.541034</v>
+      </c>
+      <c r="Q2" s="14" t="n">
+        <v>7241375</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>28.286903</v>
+      </c>
+      <c r="S2" s="14" t="n">
+        <v>116216072</v>
+      </c>
+      <c r="T2" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="X2" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="18"/>
+      <c r="Y2" s="3" t="n"/>
+      <c r="Z2" s="11">
+        <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/#REF!</f>
+        <v/>
+      </c>
+      <c r="AA2" s="11">
+        <f>#REF!-$Z2</f>
+        <v/>
+      </c>
+      <c r="AB2" s="19" t="n"/>
+      <c r="AC2" s="7" t="n"/>
+      <c r="AD2" s="19" t="n"/>
     </row>
-    <row r="2" ht="50" customHeight="1" spans="1:34">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11">
-        <v>19926.06</v>
-      </c>
-      <c r="E2" s="14">
-        <v>7916089010</v>
-      </c>
-      <c r="F2" s="14">
-        <v>196243122</v>
-      </c>
-      <c r="G2" s="11">
-        <v>40.34</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0.024789</v>
-      </c>
-      <c r="I2" s="14">
-        <v>15954862</v>
-      </c>
-      <c r="J2" s="11">
-        <v>48.541034</v>
-      </c>
-      <c r="K2" s="14">
-        <v>4071016</v>
-      </c>
-      <c r="L2" s="14">
-        <v>2</v>
-      </c>
-      <c r="M2" s="14">
-        <v>52759794</v>
-      </c>
-      <c r="N2" s="14">
-        <v>2</v>
-      </c>
-      <c r="O2" s="14">
-        <v>15954862</v>
-      </c>
-      <c r="P2" s="11">
-        <v>52.541034</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>7241375</v>
-      </c>
-      <c r="R2" s="11">
-        <v>28.286903</v>
-      </c>
-      <c r="S2" s="14">
-        <v>116216072</v>
-      </c>
-      <c r="T2" s="14">
-        <v>2</v>
-      </c>
-      <c r="U2" s="14">
-        <v>2</v>
-      </c>
-      <c r="V2" s="14">
-        <v>2</v>
-      </c>
-      <c r="W2" s="14">
-        <v>1</v>
-      </c>
-      <c r="X2" s="14">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="11" t="e">
-        <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA2" s="11" t="e">
-        <f>#REF!-$Z2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7f9915f1bbe451eae6f52cae6e9a617535396e4a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>添加简易缓存</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3749376804</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>195387384</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>19.189452</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.052112</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>15648834</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>46.000669</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4044040</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>52749933</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>15648834</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>49.000669</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>7057554</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>27.216868</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>115887020</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -1,199 +1,330 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20030" windowHeight="10680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="23230" windowHeight="12480"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>综合频率</t>
+  </si>
+  <si>
+    <t>综合面积</t>
+  </si>
+  <si>
+    <t>仿真周期数</t>
+  </si>
+  <si>
+    <t>指令数</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>IPC</t>
+  </si>
+  <si>
+    <t>取数据计数器</t>
+  </si>
+  <si>
+    <t>取数据平均周期</t>
+  </si>
+  <si>
+    <t>JMP指令计数器</t>
+  </si>
+  <si>
+    <t>JPM指令平均执行周期</t>
+  </si>
+  <si>
+    <t>BRANCH指令计数器</t>
+  </si>
+  <si>
+    <t>BRANCH指令平均执行周期</t>
+  </si>
+  <si>
+    <t>LOAD指令计数器</t>
+  </si>
+  <si>
+    <t>LOAD指令平均执行周期</t>
+  </si>
+  <si>
+    <t>STORE指令计数器</t>
+  </si>
+  <si>
+    <t>STORE指令平均执行周期</t>
+  </si>
+  <si>
+    <t>AL指令计数器</t>
+  </si>
+  <si>
+    <t>AL指令平均执行周期</t>
+  </si>
+  <si>
+    <t>CSR指令计数器</t>
+  </si>
+  <si>
+    <t>CSR指令平均执行周期</t>
+  </si>
+  <si>
+    <t>ECALL/EBREAK指令计数器</t>
+  </si>
+  <si>
+    <t>ECALL/EBREAK指令平均执行周期</t>
+  </si>
+  <si>
+    <t>缓存访问次数</t>
+  </si>
+  <si>
+    <t>缓存命中次数</t>
+  </si>
+  <si>
+    <t>缓存命中率</t>
+  </si>
+  <si>
+    <t>平均缓存访问时间</t>
+  </si>
+  <si>
+    <t>平均缓存惩罚时间</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>后续为计算结果</t>
+  </si>
+  <si>
+    <t>平均指令执行周期</t>
+  </si>
+  <si>
+    <t>平均指令取值周期</t>
+  </si>
+  <si>
+    <t>ce55f5540399bdb8a3d1741edd4e8ae37753ab7a</t>
+  </si>
+  <si>
+    <t>添加APBDelayer</t>
+  </si>
+  <si>
+    <t>460MHz</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000000_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
   </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FFFFFF00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="文泉驿微米黑"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -391,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -409,6 +540,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -515,220 +659,233 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,74 +939,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1136,381 +1230,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col width="14.5833333333333" customWidth="1" style="2" min="1" max="1"/>
-    <col width="14.5833333333333" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.5833333333333" customWidth="1" style="4" min="3" max="5"/>
-    <col width="14.5833333333333" customWidth="1" style="21" min="6" max="6"/>
-    <col width="14.5833333333333" customWidth="1" style="3" min="7" max="7"/>
-    <col width="14.5833333333333" customWidth="1" style="6" min="8" max="8"/>
-    <col width="14.5833333333333" customWidth="1" style="4" min="9" max="13"/>
-    <col width="14.5833333333333" customWidth="1" style="6" min="14" max="14"/>
-    <col width="14.5833333333333" customWidth="1" style="4" min="15" max="19"/>
-    <col width="14.5833333333333" customWidth="1" style="6" min="20" max="20"/>
-    <col width="14.5833333333333" customWidth="1" style="4" min="21" max="21"/>
-    <col width="14.5833333333333" customWidth="1" style="6" min="22" max="22"/>
-    <col width="14.5833333333333" customWidth="1" style="4" min="23" max="28"/>
-    <col width="14.5833333333333" customWidth="1" style="3" min="29" max="30"/>
-    <col width="14.5833333333333" customWidth="1" style="7" min="31" max="34"/>
+    <col min="1" max="1" width="14.5833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="3" max="4" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="5" max="6" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="7" max="8" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="16" max="16" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="18" max="18" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="20" max="20" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="21" max="21" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="22" max="22" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="23" max="23" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="24" max="24" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="25" max="26" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="27" max="30" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="31" max="33" width="14.5833333333333" style="7" customWidth="1"/>
+    <col min="34" max="34" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="35" max="38" width="14.5833333333333" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>commit</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="inlineStr">
-        <is>
-          <t>说明</t>
-        </is>
-      </c>
-      <c r="C1" s="8" t="inlineStr">
-        <is>
-          <t>综合频率</t>
-        </is>
-      </c>
-      <c r="D1" s="9" t="inlineStr">
-        <is>
-          <t>综合面积</t>
-        </is>
-      </c>
-      <c r="E1" s="12" t="inlineStr">
-        <is>
-          <t>仿真周期数</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>指令数</t>
-        </is>
-      </c>
-      <c r="G1" s="12" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-      <c r="H1" s="22" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
-      </c>
-      <c r="I1" s="12" t="inlineStr">
-        <is>
-          <t>取数据计数器</t>
-        </is>
-      </c>
-      <c r="J1" s="9" t="inlineStr">
-        <is>
-          <t>取数据平均周期</t>
-        </is>
-      </c>
-      <c r="K1" s="12" t="inlineStr">
-        <is>
-          <t>JMP指令计数器</t>
-        </is>
-      </c>
-      <c r="L1" s="12" t="inlineStr">
-        <is>
-          <t>JPM指令平均执行周期</t>
-        </is>
-      </c>
-      <c r="M1" s="12" t="inlineStr">
-        <is>
-          <t>BRANCH指令计数器</t>
-        </is>
-      </c>
-      <c r="N1" s="12" t="inlineStr">
-        <is>
-          <t>BRANCH指令平均执行周期</t>
-        </is>
-      </c>
-      <c r="O1" s="12" t="inlineStr">
-        <is>
-          <t>LOAD指令计数器</t>
-        </is>
-      </c>
-      <c r="P1" s="9" t="inlineStr">
-        <is>
-          <t>LOAD指令平均执行周期</t>
-        </is>
-      </c>
-      <c r="Q1" s="12" t="inlineStr">
-        <is>
-          <t>STORE指令计数器</t>
-        </is>
-      </c>
-      <c r="R1" s="9" t="inlineStr">
-        <is>
-          <t>STORE指令平均执行周期</t>
-        </is>
-      </c>
-      <c r="S1" s="12" t="inlineStr">
-        <is>
-          <t>AL指令计数器</t>
-        </is>
-      </c>
-      <c r="T1" s="12" t="inlineStr">
-        <is>
-          <t>AL指令平均执行周期</t>
-        </is>
-      </c>
-      <c r="U1" s="12" t="inlineStr">
-        <is>
-          <t>CSR指令计数器</t>
-        </is>
-      </c>
-      <c r="V1" s="12" t="inlineStr">
-        <is>
-          <t>CSR指令平均执行周期</t>
-        </is>
-      </c>
-      <c r="W1" s="12" t="inlineStr">
-        <is>
-          <t>ECALL/EBREAK指令计数器</t>
-        </is>
-      </c>
-      <c r="X1" s="12" t="inlineStr">
-        <is>
-          <t>ECALL/EBREAK指令平均执行周期</t>
-        </is>
-      </c>
-      <c r="Y1" s="16" t="inlineStr">
-        <is>
-          <t>后续为计算结果</t>
-        </is>
-      </c>
-      <c r="Z1" s="17" t="inlineStr">
-        <is>
-          <t>平均指令执行周期</t>
-        </is>
-      </c>
-      <c r="AA1" s="17" t="inlineStr">
-        <is>
-          <t>平均指令取值周期</t>
-        </is>
-      </c>
-      <c r="AB1" s="18" t="n"/>
-      <c r="AC1" s="20" t="n"/>
-      <c r="AD1" s="18" t="n"/>
+    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:38">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
     </row>
-    <row r="2" ht="50" customHeight="1">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>ce55f5540399bdb8a3d1741edd4e8ae37753ab7a</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>添加APBDelayer</t>
-        </is>
-      </c>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t>460MHz</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="n">
+    <row r="2" ht="50" customHeight="1" spans="1:38">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="13">
         <v>19926.06</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="16">
         <v>7916089010</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="16">
         <v>196243122</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="17">
         <v>40.34</v>
       </c>
-      <c r="H2" s="23" t="n">
+      <c r="H2" s="17">
         <v>0.024789</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="16">
         <v>15954862</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="13">
         <v>48.541034</v>
       </c>
-      <c r="K2" s="14" t="n">
+      <c r="K2" s="16">
         <v>4071016</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="13">
         <v>2</v>
       </c>
-      <c r="M2" s="14" t="n">
+      <c r="M2" s="16">
         <v>52759794</v>
       </c>
-      <c r="N2" s="14" t="n">
+      <c r="N2" s="13">
         <v>2</v>
       </c>
-      <c r="O2" s="14" t="n">
+      <c r="O2" s="16">
         <v>15954862</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="13">
         <v>52.541034</v>
       </c>
-      <c r="Q2" s="14" t="n">
+      <c r="Q2" s="16">
         <v>7241375</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="13">
         <v>28.286903</v>
       </c>
-      <c r="S2" s="14" t="n">
+      <c r="S2" s="16">
         <v>116216072</v>
       </c>
-      <c r="T2" s="14" t="n">
+      <c r="T2" s="13">
         <v>2</v>
       </c>
-      <c r="U2" s="14" t="n">
+      <c r="U2" s="16">
         <v>2</v>
       </c>
-      <c r="V2" s="14" t="n">
+      <c r="V2" s="13">
         <v>2</v>
       </c>
-      <c r="W2" s="14" t="n">
+      <c r="W2" s="16">
         <v>1</v>
       </c>
-      <c r="X2" s="14" t="n">
+      <c r="X2" s="13">
         <v>2</v>
       </c>
-      <c r="Y2" s="3" t="n"/>
-      <c r="Z2" s="11">
-        <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/#REF!</f>
-        <v/>
-      </c>
-      <c r="AA2" s="11">
-        <f>#REF!-$Z2</f>
-        <v/>
-      </c>
-      <c r="AB2" s="19" t="n"/>
-      <c r="AC2" s="7" t="n"/>
-      <c r="AD2" s="19" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>7f9915f1bbe451eae6f52cae6e9a617535396e4a</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>添加简易缓存</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3749376804</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>195387384</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>19.189452</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.052112</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15648834</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>46.000669</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>4044040</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2.000000</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>52749933</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2.000000</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>15648834</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>49.000669</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>7057554</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>27.216868</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>115887020</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>2.000000</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>2.000000</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>2.000000</t>
-        </is>
-      </c>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="25">
+        <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/$F2</f>
+        <v>7.07904957310521</v>
+      </c>
+      <c r="AG2" s="25">
+        <f>$G2-$AF2</f>
+        <v>33.2609504268948</v>
+      </c>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>commit</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>460MHz</t>
+  </si>
+  <si>
+    <t>4d9008b04cd0701e16dc66ec3f65e49cc502e84a</t>
+  </si>
+  <si>
+    <t>添加简易缓存</t>
+  </si>
+  <si>
+    <t>470MHz</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -540,19 +549,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -680,7 +676,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -692,34 +688,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
@@ -804,11 +800,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -834,14 +833,11 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -849,11 +845,8 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -861,31 +854,21 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1234,53 +1217,53 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="14.5833333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="3" max="4" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="5" max="6" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="7" max="8" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="15" max="15" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="16" max="16" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="18" max="18" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="20" max="20" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="22" max="22" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="23" max="23" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="24" max="24" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="25" max="26" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="27" max="30" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="31" max="33" width="14.5833333333333" style="7" customWidth="1"/>
-    <col min="34" max="34" width="14.5833333333333" style="3" customWidth="1"/>
-    <col min="35" max="38" width="14.5833333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.5833333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="3" max="4" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="5" max="6" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="7" max="8" width="14.5833333333333" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="15" max="15" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="17" max="17" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="20" max="20" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="21" max="21" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="22" max="22" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="23" max="23" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="24" max="24" width="14.5833333333333" style="5" customWidth="1"/>
+    <col min="25" max="26" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="27" max="30" width="14.5833333333333" style="7" customWidth="1"/>
+    <col min="31" max="33" width="14.5833333333333" style="8" customWidth="1"/>
+    <col min="34" max="34" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="35" max="38" width="14.5833333333333" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:38">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -1298,86 +1281,86 @@
       <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AG1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
     </row>
-    <row r="2" ht="50" customHeight="1" spans="1:38">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="2" customFormat="1" ht="50" customHeight="1" spans="1:38">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1395,80 +1378,184 @@
       <c r="F2" s="16">
         <v>196243122</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>40.34</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>0.024789</v>
       </c>
       <c r="I2" s="16">
         <v>15954862</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="16">
         <v>48.541034</v>
       </c>
       <c r="K2" s="16">
         <v>4071016</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="16">
         <v>2</v>
       </c>
       <c r="M2" s="16">
         <v>52759794</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="16">
         <v>2</v>
       </c>
       <c r="O2" s="16">
         <v>15954862</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="16">
         <v>52.541034</v>
       </c>
       <c r="Q2" s="16">
         <v>7241375</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="16">
         <v>28.286903</v>
       </c>
       <c r="S2" s="16">
         <v>116216072</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="16">
         <v>2</v>
       </c>
       <c r="U2" s="16">
         <v>2</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="16">
         <v>2</v>
       </c>
       <c r="W2" s="16">
         <v>1</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="16">
         <v>2</v>
       </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25">
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="21">
         <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/$F2</f>
         <v>7.07904957310521</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AG2" s="21">
         <f>$G2-$AF2</f>
         <v>33.2609504268948</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="50" customHeight="1" spans="1:38">
+      <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13">
+        <v>31364.858</v>
+      </c>
+      <c r="E3" s="16">
+        <v>3664478516</v>
+      </c>
+      <c r="F3" s="16">
+        <v>196237829</v>
+      </c>
+      <c r="G3" s="16">
+        <v>18.67366</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.053551</v>
+      </c>
+      <c r="I3" s="16">
+        <v>15954592</v>
+      </c>
+      <c r="J3" s="16">
+        <v>46.696262</v>
+      </c>
+      <c r="K3" s="16">
+        <v>4070935</v>
+      </c>
+      <c r="L3" s="16">
+        <v>2</v>
+      </c>
+      <c r="M3" s="16">
+        <v>52759602</v>
+      </c>
+      <c r="N3" s="16">
+        <v>2</v>
+      </c>
+      <c r="O3" s="16">
+        <v>15954592</v>
+      </c>
+      <c r="P3" s="16">
+        <v>49.696262</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>7241117</v>
+      </c>
+      <c r="R3" s="16">
+        <v>26.386494</v>
+      </c>
+      <c r="S3" s="16">
+        <v>116211580</v>
+      </c>
+      <c r="T3" s="16">
+        <v>2</v>
+      </c>
+      <c r="U3" s="16">
+        <v>2</v>
+      </c>
+      <c r="V3" s="16">
+        <v>2</v>
+      </c>
+      <c r="W3" s="16">
+        <v>1</v>
+      </c>
+      <c r="X3" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>196042461</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>145706428</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>74.323913</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>2.256761</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>33.669864</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>10.901864</v>
+      </c>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="21">
+        <f>($K3*$L3+$M3*$N3+$O3*$P3+$Q3*$R3+$S3*$T3+$U3*$V3+$W3*$X3)/$F3</f>
+        <v>6.77767136533549</v>
+      </c>
+      <c r="AG3" s="21">
+        <f>$G3-$AF3</f>
+        <v>11.8959886346645</v>
+      </c>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>commit</t>
   </si>
@@ -99,6 +99,34 @@
   </si>
   <si>
     <t>ECALL/EBREAK指令平均执行周期</t>
+  </si>
+  <si>
+    <r>
+      <t>FENCE.I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令计数器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FENCE.I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿微米黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令平均执行周期</t>
+    </r>
   </si>
   <si>
     <t>缓存访问次数</t>
@@ -800,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -833,9 +861,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -845,9 +870,6 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,11 +882,11 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,10 +1239,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF31" sqref="AF31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1246,14 +1268,14 @@
     <col min="22" max="22" width="14.5833333333333" style="5" customWidth="1"/>
     <col min="23" max="23" width="14.5833333333333" style="6" customWidth="1"/>
     <col min="24" max="24" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="25" max="26" width="14.5833333333333" style="6" customWidth="1"/>
-    <col min="27" max="30" width="14.5833333333333" style="7" customWidth="1"/>
-    <col min="31" max="33" width="14.5833333333333" style="8" customWidth="1"/>
-    <col min="34" max="34" width="14.5833333333333" style="4" customWidth="1"/>
-    <col min="35" max="38" width="14.5833333333333" style="9" customWidth="1"/>
+    <col min="25" max="28" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="29" max="32" width="14.5833333333333" style="7" customWidth="1"/>
+    <col min="33" max="35" width="14.5833333333333" style="8" customWidth="1"/>
+    <col min="36" max="36" width="14.5833333333333" style="4" customWidth="1"/>
+    <col min="37" max="40" width="14.5833333333333" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:38">
+    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:40">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1266,296 +1288,308 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
+      <c r="AH1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="19"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="50" customHeight="1" spans="1:38">
-      <c r="A2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="13" t="s">
+    <row r="2" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="13">
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="12">
         <v>19926.06</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="3">
         <v>7916089010</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="3">
         <v>196243122</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="3">
         <v>40.34</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="3">
         <v>0.024789</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="3">
         <v>15954862</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="3">
         <v>48.541034</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="3">
         <v>4071016</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="3">
         <v>2</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="3">
         <v>52759794</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="3">
         <v>2</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="3">
         <v>15954862</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="3">
         <v>52.541034</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="3">
         <v>7241375</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="3">
         <v>28.286903</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="3">
         <v>116216072</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="3">
         <v>2</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="3">
         <v>2</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="3">
         <v>2</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="3">
         <v>1</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="3">
         <v>2</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="21">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="20">
         <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/$F2</f>
         <v>7.07904957310521</v>
       </c>
-      <c r="AG2" s="21">
-        <f>$G2-$AF2</f>
+      <c r="AI2" s="20">
+        <f>$G2-$AH2</f>
         <v>33.2609504268948</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="50" customHeight="1" spans="1:38">
-      <c r="A3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="3" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="13">
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="12">
         <v>31364.858</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="3">
         <v>3664478516</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="3">
         <v>196237829</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="3">
         <v>18.67366</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="3">
         <v>0.053551</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="3">
         <v>15954592</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="3">
         <v>46.696262</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="3">
         <v>4070935</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="3">
         <v>52759602</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="3">
         <v>2</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="3">
         <v>15954592</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="3">
         <v>49.696262</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="3">
         <v>7241117</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="3">
         <v>26.386494</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="3">
         <v>116211580</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="3">
         <v>2</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="3">
         <v>2</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="3">
         <v>2</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="3">
         <v>1</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="3">
         <v>2</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3">
         <v>196042461</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="AB3" s="3">
         <v>145706428</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AC3" s="3">
         <v>74.323913</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AD3" s="3">
         <v>2.256761</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AE3" s="3">
         <v>33.669864</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AF3" s="3">
         <v>10.901864</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="21">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="20">
         <f>($K3*$L3+$M3*$N3+$O3*$P3+$Q3*$R3+$S3*$T3+$U3*$V3+$W3*$X3)/$F3</f>
         <v>6.77767136533549</v>
       </c>
-      <c r="AG3" s="21">
-        <f>$G3-$AF3</f>
+      <c r="AI3" s="20">
+        <f>$G3-$AH3</f>
         <v>11.8959886346645</v>
       </c>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>commit</t>
   </si>
@@ -101,32 +101,10 @@
     <t>ECALL/EBREAK指令平均执行周期</t>
   </si>
   <si>
-    <r>
-      <t>FENCE.I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿微米黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指令计数器</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FENCE.I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿微米黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指令平均执行周期</t>
-    </r>
+    <t>FENCE.I指令计数器</t>
+  </si>
+  <si>
+    <t>FENCE.I指令平均执行周期</t>
   </si>
   <si>
     <t>缓存访问次数</t>
@@ -168,10 +146,22 @@
     <t>4d9008b04cd0701e16dc66ec3f65e49cc502e84a</t>
   </si>
   <si>
-    <t>添加简易缓存</t>
+    <t>添加简易缓存: Total-64B, Block:4B</t>
   </si>
   <si>
     <t>470MHz</t>
+  </si>
+  <si>
+    <t>ac72db88deafb54f3437bbd375ec32bc95e1ae12</t>
+  </si>
+  <si>
+    <t>缓存设计优化: Total-64B, Block: 32B</t>
+  </si>
+  <si>
+    <t>462.078MHz</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -870,6 +860,9 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -887,9 +880,6 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1239,13 +1229,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="14.5833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.5833333333333" style="4" customWidth="1"/>
@@ -1354,34 +1344,34 @@
       <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AH1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AI1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="19"/>
+      <c r="AJ1" s="20"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
@@ -1469,15 +1459,15 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="20">
+      <c r="AH2" s="21">
         <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/$F2</f>
         <v>7.07904957310521</v>
       </c>
-      <c r="AI2" s="20">
+      <c r="AI2" s="21">
         <f>$G2-$AH2</f>
         <v>33.2609504268948</v>
       </c>
-      <c r="AJ2" s="21"/>
+      <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
@@ -1577,19 +1567,131 @@
         <v>10.901864</v>
       </c>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="20">
+      <c r="AH3" s="21">
         <f>($K3*$L3+$M3*$N3+$O3*$P3+$Q3*$R3+$S3*$T3+$U3*$V3+$W3*$X3)/$F3</f>
         <v>6.77767136533549</v>
       </c>
-      <c r="AI3" s="20">
+      <c r="AI3" s="21">
         <f>$G3-$AH3</f>
         <v>11.8959886346645</v>
       </c>
-      <c r="AJ3" s="21"/>
+      <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="12">
+        <v>28068.852</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2677557554</v>
+      </c>
+      <c r="F4" s="15">
+        <v>196236510</v>
+      </c>
+      <c r="G4" s="15">
+        <v>13.644543</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.073289</v>
+      </c>
+      <c r="I4" s="15">
+        <v>15954592</v>
+      </c>
+      <c r="J4" s="15">
+        <v>31.947217</v>
+      </c>
+      <c r="K4" s="15">
+        <v>4070930</v>
+      </c>
+      <c r="L4" s="15">
+        <v>2</v>
+      </c>
+      <c r="M4" s="15">
+        <v>52759108</v>
+      </c>
+      <c r="N4" s="15">
+        <v>2</v>
+      </c>
+      <c r="O4" s="15">
+        <v>15954592</v>
+      </c>
+      <c r="P4" s="15">
+        <v>34.947217</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>7241106</v>
+      </c>
+      <c r="R4" s="15">
+        <v>29.672741</v>
+      </c>
+      <c r="S4" s="15">
+        <v>116210771</v>
+      </c>
+      <c r="T4" s="15">
+        <v>2</v>
+      </c>
+      <c r="U4" s="15">
+        <v>2</v>
+      </c>
+      <c r="V4" s="15">
+        <v>2</v>
+      </c>
+      <c r="W4" s="15">
+        <v>1</v>
+      </c>
+      <c r="X4" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>196041130</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>183395047</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>93.549271</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>2.064507</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>75.683682</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>6.946657</v>
+      </c>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="21">
+        <f>($K4*$L4+$M4*$N4+$O4*$P4+$Q4*$R4+$S4*$T4+$U4*$V4+$W4*$X4)/$F4</f>
+        <v>5.69982454163096</v>
+      </c>
+      <c r="AI4" s="21">
+        <f>$G4-$AH4</f>
+        <v>7.94471845836904</v>
+      </c>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23230" windowHeight="12480"/>
+    <workbookView windowWidth="20030" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>commit</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>70f5e4b5baef25e84f06cb2e1e2f89f57e233ec9</t>
+  </si>
+  <si>
+    <t>评估缓存: Total-64B, Block-64B</t>
+  </si>
+  <si>
+    <t>471.967MHz</t>
   </si>
 </sst>
 </file>
@@ -1229,13 +1238,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="14.5833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.5833333333333" style="4" customWidth="1"/>
@@ -1594,88 +1603,88 @@
       <c r="D4" s="12">
         <v>28068.852</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="3">
         <v>2677557554</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="3">
         <v>196236510</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="3">
         <v>13.644543</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="3">
         <v>0.073289</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="3">
         <v>15954592</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="3">
         <v>31.947217</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="3">
         <v>4070930</v>
       </c>
-      <c r="L4" s="15">
-        <v>2</v>
-      </c>
-      <c r="M4" s="15">
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
         <v>52759108</v>
       </c>
-      <c r="N4" s="15">
-        <v>2</v>
-      </c>
-      <c r="O4" s="15">
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
         <v>15954592</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="3">
         <v>34.947217</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="3">
         <v>7241106</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="3">
         <v>29.672741</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="3">
         <v>116210771</v>
       </c>
-      <c r="T4" s="15">
-        <v>2</v>
-      </c>
-      <c r="U4" s="15">
-        <v>2</v>
-      </c>
-      <c r="V4" s="15">
-        <v>2</v>
-      </c>
-      <c r="W4" s="15">
+      <c r="T4" s="3">
+        <v>2</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3">
         <v>1</v>
       </c>
-      <c r="X4" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="15">
+      <c r="X4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="3">
         <v>0</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA4" s="3">
         <v>196041130</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB4" s="3">
         <v>183395047</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="3">
         <v>93.549271</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AD4" s="3">
         <v>2.064507</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AE4" s="3">
         <v>75.683682</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="3">
         <v>6.946657</v>
       </c>
       <c r="AG4" s="3"/>
@@ -1693,6 +1702,118 @@
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
     </row>
+    <row r="5" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12">
+        <v>26190.626</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3165161454</v>
+      </c>
+      <c r="F5" s="15">
+        <v>196237441</v>
+      </c>
+      <c r="G5" s="15">
+        <v>16.129243</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.061999</v>
+      </c>
+      <c r="I5" s="15">
+        <v>15954623</v>
+      </c>
+      <c r="J5" s="15">
+        <v>31.312973</v>
+      </c>
+      <c r="K5" s="15">
+        <v>4070950</v>
+      </c>
+      <c r="L5" s="15">
+        <v>2</v>
+      </c>
+      <c r="M5" s="15">
+        <v>52759447</v>
+      </c>
+      <c r="N5" s="15">
+        <v>2</v>
+      </c>
+      <c r="O5" s="15">
+        <v>15954623</v>
+      </c>
+      <c r="P5" s="15">
+        <v>34.312973</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>7241132</v>
+      </c>
+      <c r="R5" s="15">
+        <v>28.988039</v>
+      </c>
+      <c r="S5" s="15">
+        <v>116211286</v>
+      </c>
+      <c r="T5" s="15">
+        <v>2</v>
+      </c>
+      <c r="U5" s="15">
+        <v>2</v>
+      </c>
+      <c r="V5" s="15">
+        <v>2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>1</v>
+      </c>
+      <c r="X5" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>196042061</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>185750545</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>94.750353</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>2.052496</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>142.071521</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>9.51075</v>
+      </c>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="21">
+        <f>($K5*$L5+$M5*$N5+$O5*$P5+$Q5*$R5+$S5*$T5+$U5*$V5+$W5*$X5)/$F5</f>
+        <v>5.6229847445082</v>
+      </c>
+      <c r="AI5" s="21">
+        <f>$G5-$AH5</f>
+        <v>10.5062582554918</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>commit</t>
   </si>
@@ -161,9 +161,6 @@
     <t>462.078MHz</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>70f5e4b5baef25e84f06cb2e1e2f89f57e233ec9</t>
   </si>
   <si>
@@ -171,6 +168,15 @@
   </si>
   <si>
     <t>471.967MHz</t>
+  </si>
+  <si>
+    <t>27b68aee619528bd05d42c2b3cd2d0fd388d6bf7</t>
+  </si>
+  <si>
+    <t>WBU-&gt;IFU-&gt;IDU改为多周期，缓存设计改为64B, 32B</t>
+  </si>
+  <si>
+    <t>501.113MHz</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +205,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -697,137 +710,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -860,6 +873,9 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,16 +888,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,13 +1254,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="14.5833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.5833333333333" style="4" customWidth="1"/>
@@ -1287,100 +1303,100 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="14" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AG1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AI1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="20"/>
+      <c r="AJ1" s="21"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
@@ -1390,13 +1406,13 @@
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>19926.06</v>
       </c>
       <c r="E2" s="3">
@@ -1468,11 +1484,11 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="21">
-        <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2)/$F2</f>
+      <c r="AH2" s="22">
+        <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2+$Y2*$Z2)/$F2</f>
         <v>7.07904957310521</v>
       </c>
-      <c r="AI2" s="21">
+      <c r="AI2" s="22">
         <f>$G2-$AH2</f>
         <v>33.2609504268948</v>
       </c>
@@ -1486,13 +1502,13 @@
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>31364.858</v>
       </c>
       <c r="E3" s="3">
@@ -1576,11 +1592,11 @@
         <v>10.901864</v>
       </c>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="21">
-        <f>($K3*$L3+$M3*$N3+$O3*$P3+$Q3*$R3+$S3*$T3+$U3*$V3+$W3*$X3)/$F3</f>
+      <c r="AH3" s="22">
+        <f>($K3*$L3+$M3*$N3+$O3*$P3+$Q3*$R3+$S3*$T3+$U3*$V3+$W3*$X3+$Y3*$Z3)/$F3</f>
         <v>6.77767136533549</v>
       </c>
-      <c r="AI3" s="21">
+      <c r="AI3" s="22">
         <f>$G3-$AH3</f>
         <v>11.8959886346645</v>
       </c>
@@ -1594,13 +1610,13 @@
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>28068.852</v>
       </c>
       <c r="E4" s="3">
@@ -1666,8 +1682,8 @@
       <c r="Y4" s="3">
         <v>0</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>44</v>
+      <c r="Z4" s="3">
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
         <v>196041130</v>
@@ -1688,11 +1704,11 @@
         <v>6.946657</v>
       </c>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="21">
-        <f>($K4*$L4+$M4*$N4+$O4*$P4+$Q4*$R4+$S4*$T4+$U4*$V4+$W4*$X4)/$F4</f>
+      <c r="AH4" s="22">
+        <f>($K4*$L4+$M4*$N4+$O4*$P4+$Q4*$R4+$S4*$T4+$U4*$V4+$W4*$X4+$Y4*$Z4)/$F4</f>
         <v>5.69982454163096</v>
       </c>
-      <c r="AI4" s="21">
+      <c r="AI4" s="22">
         <f>$G4-$AH4</f>
         <v>7.94471845836904</v>
       </c>
@@ -1704,107 +1720,107 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
       <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>26190.626</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="3">
         <v>3165161454</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="3">
         <v>196237441</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="3">
         <v>16.129243</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="3">
         <v>0.061999</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="3">
         <v>15954623</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="3">
         <v>31.312973</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="3">
         <v>4070950</v>
       </c>
-      <c r="L5" s="15">
-        <v>2</v>
-      </c>
-      <c r="M5" s="15">
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
         <v>52759447</v>
       </c>
-      <c r="N5" s="15">
-        <v>2</v>
-      </c>
-      <c r="O5" s="15">
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
         <v>15954623</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="3">
         <v>34.312973</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="3">
         <v>7241132</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="3">
         <v>28.988039</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="3">
         <v>116211286</v>
       </c>
-      <c r="T5" s="15">
-        <v>2</v>
-      </c>
-      <c r="U5" s="15">
-        <v>2</v>
-      </c>
-      <c r="V5" s="15">
-        <v>2</v>
-      </c>
-      <c r="W5" s="15">
+      <c r="T5" s="3">
+        <v>2</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3">
         <v>1</v>
       </c>
-      <c r="X5" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="15">
+      <c r="X5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="3">
         <v>0</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="15">
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
         <v>196042061</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="3">
         <v>185750545</v>
       </c>
-      <c r="AC5" s="15">
+      <c r="AC5" s="3">
         <v>94.750353</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="3">
         <v>2.052496</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AE5" s="3">
         <v>142.071521</v>
       </c>
-      <c r="AF5" s="15">
+      <c r="AF5" s="3">
         <v>9.51075</v>
       </c>
       <c r="AG5" s="3"/>
-      <c r="AH5" s="21">
-        <f>($K5*$L5+$M5*$N5+$O5*$P5+$Q5*$R5+$S5*$T5+$U5*$V5+$W5*$X5)/$F5</f>
+      <c r="AH5" s="22">
+        <f>($K5*$L5+$M5*$N5+$O5*$P5+$Q5*$R5+$S5*$T5+$U5*$V5+$W5*$X5+$Y5*$Z5)/$F5</f>
         <v>5.6229847445082</v>
       </c>
-      <c r="AI5" s="21">
+      <c r="AI5" s="22">
         <f>$G5-$AH5</f>
         <v>10.5062582554918</v>
       </c>
@@ -1814,6 +1830,118 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
     </row>
+    <row r="6" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="13">
+        <v>28113.274</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3067386575</v>
+      </c>
+      <c r="F6" s="16">
+        <v>196236739</v>
+      </c>
+      <c r="G6" s="16">
+        <v>15.631052</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.063975</v>
+      </c>
+      <c r="I6" s="16">
+        <v>15954564</v>
+      </c>
+      <c r="J6" s="16">
+        <v>31.661066</v>
+      </c>
+      <c r="K6" s="16">
+        <v>4070915</v>
+      </c>
+      <c r="L6" s="16">
+        <v>4</v>
+      </c>
+      <c r="M6" s="16">
+        <v>52759194</v>
+      </c>
+      <c r="N6" s="16">
+        <v>4</v>
+      </c>
+      <c r="O6" s="16">
+        <v>15954564</v>
+      </c>
+      <c r="P6" s="16">
+        <v>36.661066</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>7241091</v>
+      </c>
+      <c r="R6" s="16">
+        <v>32.118955</v>
+      </c>
+      <c r="S6" s="16">
+        <v>116210972</v>
+      </c>
+      <c r="T6" s="16">
+        <v>4</v>
+      </c>
+      <c r="U6" s="16">
+        <v>2</v>
+      </c>
+      <c r="V6" s="16">
+        <v>4</v>
+      </c>
+      <c r="W6" s="16">
+        <v>1</v>
+      </c>
+      <c r="X6" s="16">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>196041380</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>183395328</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>93.549295</v>
+      </c>
+      <c r="AD6" s="16">
+        <v>2.064507</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>75.580292</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>6.939969</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="22">
+        <f>($K6*$L6+$M6*$N6+$O6*$P6+$Q6*$R6+$S6*$T6+$U6*$V6+$W6*$X6+$Y6*$Z6)/$F6</f>
+        <v>7.69301377243702</v>
+      </c>
+      <c r="AI6" s="22">
+        <f>$G6-$AH6</f>
+        <v>7.93803822756298</v>
+      </c>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20030" windowHeight="10680"/>
+    <workbookView windowWidth="21285" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>commit</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>501.113MHz</t>
+  </si>
+  <si>
+    <t>e551b191d5e4342230310f05500170c2a50cb3aa</t>
+  </si>
+  <si>
+    <t>实现流水线</t>
+  </si>
+  <si>
+    <t>445.189MHz</t>
   </si>
 </sst>
 </file>
@@ -1254,13 +1263,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="14.5833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.5833333333333" style="4" customWidth="1"/>
@@ -1843,88 +1852,88 @@
       <c r="D6" s="13">
         <v>28113.274</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="3">
         <v>3067386575</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="3">
         <v>196236739</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="3">
         <v>15.631052</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="3">
         <v>0.063975</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="3">
         <v>15954564</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="3">
         <v>31.661066</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="3">
         <v>4070915</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="3">
         <v>4</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="3">
         <v>52759194</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="3">
         <v>4</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="3">
         <v>15954564</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="3">
         <v>36.661066</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="3">
         <v>7241091</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="3">
         <v>32.118955</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="3">
         <v>116210972</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="3">
         <v>4</v>
       </c>
-      <c r="U6" s="16">
-        <v>2</v>
-      </c>
-      <c r="V6" s="16">
+      <c r="U6" s="3">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3">
         <v>4</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="3">
         <v>1</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="3">
         <v>4</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="3">
         <v>0</v>
       </c>
       <c r="Z6" s="3">
         <v>0</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="3">
         <v>196041380</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AB6" s="3">
         <v>183395328</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AC6" s="3">
         <v>93.549295</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AD6" s="3">
         <v>2.064507</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AE6" s="3">
         <v>75.580292</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AF6" s="3">
         <v>6.939969</v>
       </c>
       <c r="AG6" s="3"/>
@@ -1942,6 +1951,118 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
     </row>
+    <row r="7" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="13">
+        <v>27044.752</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2832067782</v>
+      </c>
+      <c r="F7" s="16">
+        <v>196236563</v>
+      </c>
+      <c r="G7" s="16">
+        <v>14.431907</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.069291</v>
+      </c>
+      <c r="I7" s="16">
+        <v>15954569</v>
+      </c>
+      <c r="J7" s="16">
+        <v>36.314566</v>
+      </c>
+      <c r="K7" s="16">
+        <v>4070900</v>
+      </c>
+      <c r="L7" s="16">
+        <v>13.026464</v>
+      </c>
+      <c r="M7" s="16">
+        <v>52759169</v>
+      </c>
+      <c r="N7" s="16">
+        <v>7.824075</v>
+      </c>
+      <c r="O7" s="16">
+        <v>15954569</v>
+      </c>
+      <c r="P7" s="16">
+        <v>53.939874</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>7241076</v>
+      </c>
+      <c r="R7" s="16">
+        <v>55.822663</v>
+      </c>
+      <c r="S7" s="16">
+        <v>116210846</v>
+      </c>
+      <c r="T7" s="16">
+        <v>8.739205</v>
+      </c>
+      <c r="U7" s="16">
+        <v>2</v>
+      </c>
+      <c r="V7" s="16">
+        <v>17.5</v>
+      </c>
+      <c r="W7" s="16">
+        <v>1</v>
+      </c>
+      <c r="X7" s="16">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>199364515</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>186600512</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>93.597656</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>3.415041</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>100.002427</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>9.817541</v>
+      </c>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="22">
+        <f>$G7-$AI7</f>
+        <v>4.614366</v>
+      </c>
+      <c r="AI7" s="22">
+        <f>$AF7</f>
+        <v>9.817541</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21285" windowHeight="12450"/>
+    <workbookView windowWidth="23230" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>commit</t>
   </si>
@@ -134,65 +134,56 @@
     <t>平均指令取值周期</t>
   </si>
   <si>
+    <t>MIPS</t>
+  </si>
+  <si>
     <t>ce55f5540399bdb8a3d1741edd4e8ae37753ab7a</t>
   </si>
   <si>
     <t>添加APBDelayer</t>
   </si>
   <si>
-    <t>460MHz</t>
-  </si>
-  <si>
     <t>4d9008b04cd0701e16dc66ec3f65e49cc502e84a</t>
   </si>
   <si>
     <t>添加简易缓存: Total-64B, Block:4B</t>
   </si>
   <si>
-    <t>470MHz</t>
-  </si>
-  <si>
     <t>ac72db88deafb54f3437bbd375ec32bc95e1ae12</t>
   </si>
   <si>
     <t>缓存设计优化: Total-64B, Block: 32B</t>
   </si>
   <si>
-    <t>462.078MHz</t>
-  </si>
-  <si>
     <t>70f5e4b5baef25e84f06cb2e1e2f89f57e233ec9</t>
   </si>
   <si>
     <t>评估缓存: Total-64B, Block-64B</t>
   </si>
   <si>
-    <t>471.967MHz</t>
-  </si>
-  <si>
     <t>27b68aee619528bd05d42c2b3cd2d0fd388d6bf7</t>
   </si>
   <si>
     <t>WBU-&gt;IFU-&gt;IDU改为多周期，缓存设计改为64B, 32B</t>
   </si>
   <si>
-    <t>501.113MHz</t>
-  </si>
-  <si>
     <t>e551b191d5e4342230310f05500170c2a50cb3aa</t>
   </si>
   <si>
     <t>实现流水线</t>
   </si>
   <si>
-    <t>445.189MHz</t>
+    <t>39232d16ae6d6ca190d24e33e1a93535af09ffe9</t>
+  </si>
+  <si>
+    <t>提升延迟,纠正访存延迟</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -200,6 +191,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.000_ \M\H\z"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -885,6 +877,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -894,9 +889,6 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,8 +901,8 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1263,13 +1255,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="14.5833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.5833333333333" style="4" customWidth="1"/>
@@ -1312,67 +1304,67 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="15" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="11" t="s">
@@ -1405,7 +1397,9 @@
       <c r="AI1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="21"/>
+      <c r="AJ1" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
@@ -1413,15 +1407,15 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="13">
+      <c r="C2" s="13">
+        <v>460</v>
+      </c>
+      <c r="D2" s="14">
         <v>19926.06</v>
       </c>
       <c r="E2" s="3">
@@ -1501,7 +1495,10 @@
         <f>$G2-$AH2</f>
         <v>33.2609504268948</v>
       </c>
-      <c r="AJ2" s="4"/>
+      <c r="AJ2" s="4">
+        <f>$C2*$H2</f>
+        <v>11.40294</v>
+      </c>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
@@ -1514,10 +1511,10 @@
       <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="13">
+        <v>470</v>
+      </c>
+      <c r="D3" s="14">
         <v>31364.858</v>
       </c>
       <c r="E3" s="3">
@@ -1609,7 +1606,10 @@
         <f>$G3-$AH3</f>
         <v>11.8959886346645</v>
       </c>
-      <c r="AJ3" s="4"/>
+      <c r="AJ3" s="4">
+        <f t="shared" ref="AJ3:AJ8" si="0">$C3*$H3</f>
+        <v>25.16897</v>
+      </c>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
@@ -1617,15 +1617,15 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
       <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="13">
+        <v>462.078</v>
+      </c>
+      <c r="D4" s="14">
         <v>28068.852</v>
       </c>
       <c r="E4" s="3">
@@ -1721,7 +1721,10 @@
         <f>$G4-$AH4</f>
         <v>7.94471845836904</v>
       </c>
-      <c r="AJ4" s="4"/>
+      <c r="AJ4" s="4">
+        <f t="shared" si="0"/>
+        <v>33.865234542</v>
+      </c>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
@@ -1729,15 +1732,15 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="13">
+        <v>43</v>
+      </c>
+      <c r="C5" s="13">
+        <v>471.967</v>
+      </c>
+      <c r="D5" s="14">
         <v>26190.626</v>
       </c>
       <c r="E5" s="3">
@@ -1833,7 +1836,10 @@
         <f>$G5-$AH5</f>
         <v>10.5062582554918</v>
       </c>
-      <c r="AJ5" s="4"/>
+      <c r="AJ5" s="4">
+        <f t="shared" si="0"/>
+        <v>29.261482033</v>
+      </c>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
@@ -1841,15 +1847,15 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="13">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13">
+        <v>501.113</v>
+      </c>
+      <c r="D6" s="14">
         <v>28113.274</v>
       </c>
       <c r="E6" s="3">
@@ -1945,7 +1951,10 @@
         <f>$G6-$AH6</f>
         <v>7.93803822756298</v>
       </c>
-      <c r="AJ6" s="4"/>
+      <c r="AJ6" s="4">
+        <f t="shared" si="0"/>
+        <v>32.058704175</v>
+      </c>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
@@ -1953,99 +1962,99 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="13">
+        <v>47</v>
+      </c>
+      <c r="C7" s="13">
+        <v>445.189</v>
+      </c>
+      <c r="D7" s="14">
         <v>27044.752</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="3">
         <v>2832067782</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="3">
         <v>196236563</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="3">
         <v>14.431907</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="3">
         <v>0.069291</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="3">
         <v>15954569</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="3">
         <v>36.314566</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="3">
         <v>4070900</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="3">
         <v>13.026464</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="3">
         <v>52759169</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="3">
         <v>7.824075</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="3">
         <v>15954569</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="3">
         <v>53.939874</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="3">
         <v>7241076</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="3">
         <v>55.822663</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="3">
         <v>116210846</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="3">
         <v>8.739205</v>
       </c>
-      <c r="U7" s="16">
-        <v>2</v>
-      </c>
-      <c r="V7" s="16">
+      <c r="U7" s="3">
+        <v>2</v>
+      </c>
+      <c r="V7" s="3">
         <v>17.5</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="3">
         <v>1</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="3">
         <v>4</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="3">
         <v>0</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="3">
         <v>0</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA7" s="3">
         <v>199364515</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AB7" s="3">
         <v>186600512</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="3">
         <v>93.597656</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AD7" s="3">
         <v>3.415041</v>
       </c>
-      <c r="AE7" s="16">
+      <c r="AE7" s="3">
         <v>100.002427</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7" s="3">
         <v>9.817541</v>
       </c>
       <c r="AG7" s="3"/>
@@ -2057,11 +2066,129 @@
         <f>$AF7</f>
         <v>9.817541</v>
       </c>
-      <c r="AJ7" s="4"/>
+      <c r="AJ7" s="4">
+        <f t="shared" si="0"/>
+        <v>30.847590999</v>
+      </c>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="13">
+        <v>565.408</v>
+      </c>
+      <c r="D8" s="14">
+        <v>27927.074</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3052210817</v>
+      </c>
+      <c r="F8" s="3">
+        <v>196237455</v>
+      </c>
+      <c r="G8" s="3">
+        <v>15.553661</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.064294</v>
+      </c>
+      <c r="I8" s="3">
+        <v>15954636</v>
+      </c>
+      <c r="J8" s="3">
+        <v>39.141892</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4070965</v>
+      </c>
+      <c r="L8" s="3">
+        <v>13.791907</v>
+      </c>
+      <c r="M8" s="3">
+        <v>52759358</v>
+      </c>
+      <c r="N8" s="3">
+        <v>8.170202</v>
+      </c>
+      <c r="O8" s="3">
+        <v>15954636</v>
+      </c>
+      <c r="P8" s="3">
+        <v>57.973508</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>7241147</v>
+      </c>
+      <c r="R8" s="3">
+        <v>62.060531</v>
+      </c>
+      <c r="S8" s="3">
+        <v>116211346</v>
+      </c>
+      <c r="T8" s="3">
+        <v>9.306366</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2</v>
+      </c>
+      <c r="V8" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
+      <c r="X8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>199366458</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>186603429</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>93.598206</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>3.500148</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>111.797019</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>10.657163</v>
+      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="22">
+        <f>$G8-$AI8</f>
+        <v>4.896498</v>
+      </c>
+      <c r="AI8" s="22">
+        <f>$AF8</f>
+        <v>10.657163</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f t="shared" si="0"/>
+        <v>36.352341952</v>
+      </c>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23230" windowHeight="12480"/>
+    <workbookView windowWidth="20030" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>commit</t>
   </si>
@@ -176,7 +176,13 @@
     <t>39232d16ae6d6ca190d24e33e1a93535af09ffe9</t>
   </si>
   <si>
-    <t>提升延迟,纠正访存延迟</t>
+    <t>提升主频,纠正访存延迟</t>
+  </si>
+  <si>
+    <t>6370e1ded3aaf5a4a4d8a63a00dfb6e9f025adee</t>
+  </si>
+  <si>
+    <t>继续提升延迟,纠正访存延迟</t>
   </si>
 </sst>
 </file>
@@ -889,6 +895,9 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,9 +905,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1255,13 +1261,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.5833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.5833333333333" style="4" customWidth="1"/>
@@ -1370,31 +1376,31 @@
       <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="21" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" s="21" t="s">
@@ -1496,7 +1502,7 @@
         <v>33.2609504268948</v>
       </c>
       <c r="AJ2" s="4">
-        <f>$C2*$H2</f>
+        <f t="shared" ref="AJ2:AJ8" si="0">$C2*$H2</f>
         <v>11.40294</v>
       </c>
       <c r="AK2" s="4"/>
@@ -1607,7 +1613,7 @@
         <v>11.8959886346645</v>
       </c>
       <c r="AJ3" s="4">
-        <f t="shared" ref="AJ3:AJ8" si="0">$C3*$H3</f>
+        <f t="shared" si="0"/>
         <v>25.16897</v>
       </c>
       <c r="AK3" s="4"/>
@@ -2190,6 +2196,121 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
     </row>
+    <row r="9" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="13">
+        <v>592.25</v>
+      </c>
+      <c r="D9" s="14">
+        <v>26907.23</v>
+      </c>
+      <c r="E9" s="17">
+        <v>3014264596</v>
+      </c>
+      <c r="F9" s="17">
+        <v>196236988</v>
+      </c>
+      <c r="G9" s="17">
+        <v>15.360328</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.065103</v>
+      </c>
+      <c r="I9" s="17">
+        <v>15954626</v>
+      </c>
+      <c r="J9" s="17">
+        <v>41.377784</v>
+      </c>
+      <c r="K9" s="17">
+        <v>4070950</v>
+      </c>
+      <c r="L9" s="17">
+        <v>17.097631</v>
+      </c>
+      <c r="M9" s="17">
+        <v>52759246</v>
+      </c>
+      <c r="N9" s="17">
+        <v>8.871057</v>
+      </c>
+      <c r="O9" s="17">
+        <v>15954626</v>
+      </c>
+      <c r="P9" s="17">
+        <v>63.221113</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>7241132</v>
+      </c>
+      <c r="R9" s="17">
+        <v>74.928342</v>
+      </c>
+      <c r="S9" s="17">
+        <v>116211031</v>
+      </c>
+      <c r="T9" s="17">
+        <v>10.169982</v>
+      </c>
+      <c r="U9" s="17">
+        <v>2</v>
+      </c>
+      <c r="V9" s="17">
+        <v>21</v>
+      </c>
+      <c r="W9" s="17">
+        <v>1</v>
+      </c>
+      <c r="X9" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>210774348</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>198011352</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>93.944711</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>2.076583</v>
+      </c>
+      <c r="AE9" s="17">
+        <v>117.963248</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>9.219599</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="22">
+        <f>$G9-$AI9</f>
+        <v>6.140729</v>
+      </c>
+      <c r="AI9" s="22">
+        <f>$AF9</f>
+        <v>9.219599</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>$C9*$H9</f>
+        <v>38.55725175</v>
+      </c>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20030" windowHeight="10680"/>
+    <workbookView windowWidth="23230" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>commit</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>继续提升延迟,纠正访存延迟</t>
+  </si>
+  <si>
+    <t>2db15f647dbe211af0e9a9658163a976b7b83a43</t>
+  </si>
+  <si>
+    <t>实现数据转发</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1267,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1502,7 +1508,7 @@
         <v>33.2609504268948</v>
       </c>
       <c r="AJ2" s="4">
-        <f t="shared" ref="AJ2:AJ8" si="0">$C2*$H2</f>
+        <f t="shared" ref="AJ2:AJ9" si="0">$C2*$H2</f>
         <v>11.40294</v>
       </c>
       <c r="AK2" s="4"/>
@@ -2209,88 +2215,88 @@
       <c r="D9" s="14">
         <v>26907.23</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="3">
         <v>3014264596</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="3">
         <v>196236988</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="3">
         <v>15.360328</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="3">
         <v>0.065103</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="3">
         <v>15954626</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="3">
         <v>41.377784</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="3">
         <v>4070950</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="3">
         <v>17.097631</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="3">
         <v>52759246</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="3">
         <v>8.871057</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="3">
         <v>15954626</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="3">
         <v>63.221113</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="3">
         <v>7241132</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="3">
         <v>74.928342</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="3">
         <v>116211031</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="3">
         <v>10.169982</v>
       </c>
-      <c r="U9" s="17">
-        <v>2</v>
-      </c>
-      <c r="V9" s="17">
+      <c r="U9" s="3">
+        <v>2</v>
+      </c>
+      <c r="V9" s="3">
         <v>21</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="3">
         <v>1</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="3">
         <v>4</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="3">
         <v>0</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="3">
         <v>0</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="3">
         <v>210774348</v>
       </c>
-      <c r="AB9" s="17">
+      <c r="AB9" s="3">
         <v>198011352</v>
       </c>
-      <c r="AC9" s="17">
+      <c r="AC9" s="3">
         <v>93.944711</v>
       </c>
-      <c r="AD9" s="17">
+      <c r="AD9" s="3">
         <v>2.076583</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AE9" s="3">
         <v>117.963248</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AF9" s="3">
         <v>9.219599</v>
       </c>
       <c r="AG9" s="3"/>
@@ -2303,13 +2309,128 @@
         <v>9.219599</v>
       </c>
       <c r="AJ9" s="4">
-        <f>$C9*$H9</f>
+        <f t="shared" si="0"/>
         <v>38.55725175</v>
       </c>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="13">
+        <v>587.513</v>
+      </c>
+      <c r="D10" s="14">
+        <v>27634.474</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2988270442</v>
+      </c>
+      <c r="F10" s="17">
+        <v>196237368</v>
+      </c>
+      <c r="G10" s="17">
+        <v>15.227836</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.065669</v>
+      </c>
+      <c r="I10" s="17">
+        <v>15954647</v>
+      </c>
+      <c r="J10" s="17">
+        <v>40.488773</v>
+      </c>
+      <c r="K10" s="17">
+        <v>4070965</v>
+      </c>
+      <c r="L10" s="17">
+        <v>24.035942</v>
+      </c>
+      <c r="M10" s="17">
+        <v>52759333</v>
+      </c>
+      <c r="N10" s="17">
+        <v>8.299362</v>
+      </c>
+      <c r="O10" s="17">
+        <v>15954647</v>
+      </c>
+      <c r="P10" s="17">
+        <v>61.740359</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>7241147</v>
+      </c>
+      <c r="R10" s="17">
+        <v>78.776917</v>
+      </c>
+      <c r="S10" s="17">
+        <v>116211273</v>
+      </c>
+      <c r="T10" s="17">
+        <v>9.987555</v>
+      </c>
+      <c r="U10" s="17">
+        <v>2</v>
+      </c>
+      <c r="V10" s="17">
+        <v>12</v>
+      </c>
+      <c r="W10" s="17">
+        <v>1</v>
+      </c>
+      <c r="X10" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>199087346</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>186324317</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>93.589231</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>2.295752</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>117.254697</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>9.812679</v>
+      </c>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="22">
+        <f>$G10-$AI10</f>
+        <v>5.415157</v>
+      </c>
+      <c r="AI10" s="22">
+        <f>$AF10</f>
+        <v>9.812679</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>$C10*$H10</f>
+        <v>38.581391197</v>
+      </c>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -1269,8 +1269,8 @@
   </sheetPr>
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1508,7 +1508,7 @@
         <v>33.2609504268948</v>
       </c>
       <c r="AJ2" s="4">
-        <f t="shared" ref="AJ2:AJ9" si="0">$C2*$H2</f>
+        <f t="shared" ref="AJ2:AJ10" si="0">$C2*$H2</f>
         <v>11.40294</v>
       </c>
       <c r="AK2" s="4"/>
@@ -2424,7 +2424,7 @@
         <v>9.812679</v>
       </c>
       <c r="AJ10" s="4">
-        <f>$C10*$H10</f>
+        <f t="shared" si="0"/>
         <v>38.581391197</v>
       </c>
       <c r="AK10" s="4"/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>commit</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>实现数据转发</t>
+  </si>
+  <si>
+    <t>b98aa52a2e277839d15edea891114ddc35edbafa</t>
+  </si>
+  <si>
+    <t>修复流水线</t>
   </si>
 </sst>
 </file>
@@ -853,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -899,9 +905,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,10 +1270,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1382,34 +1385,34 @@
       <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AF1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="9"/>
@@ -1499,11 +1502,11 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="22">
+      <c r="AH2" s="21">
         <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2+$Y2*$Z2)/$F2</f>
         <v>7.07904957310521</v>
       </c>
-      <c r="AI2" s="22">
+      <c r="AI2" s="21">
         <f>$G2-$AH2</f>
         <v>33.2609504268948</v>
       </c>
@@ -1610,11 +1613,11 @@
         <v>10.901864</v>
       </c>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="22">
+      <c r="AH3" s="21">
         <f>($K3*$L3+$M3*$N3+$O3*$P3+$Q3*$R3+$S3*$T3+$U3*$V3+$W3*$X3+$Y3*$Z3)/$F3</f>
         <v>6.77767136533549</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="21">
         <f>$G3-$AH3</f>
         <v>11.8959886346645</v>
       </c>
@@ -1725,11 +1728,11 @@
         <v>6.946657</v>
       </c>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="22">
+      <c r="AH4" s="21">
         <f>($K4*$L4+$M4*$N4+$O4*$P4+$Q4*$R4+$S4*$T4+$U4*$V4+$W4*$X4+$Y4*$Z4)/$F4</f>
         <v>5.69982454163096</v>
       </c>
-      <c r="AI4" s="22">
+      <c r="AI4" s="21">
         <f>$G4-$AH4</f>
         <v>7.94471845836904</v>
       </c>
@@ -1840,11 +1843,11 @@
         <v>9.51075</v>
       </c>
       <c r="AG5" s="3"/>
-      <c r="AH5" s="22">
+      <c r="AH5" s="21">
         <f>($K5*$L5+$M5*$N5+$O5*$P5+$Q5*$R5+$S5*$T5+$U5*$V5+$W5*$X5+$Y5*$Z5)/$F5</f>
         <v>5.6229847445082</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AI5" s="21">
         <f>$G5-$AH5</f>
         <v>10.5062582554918</v>
       </c>
@@ -1955,11 +1958,11 @@
         <v>6.939969</v>
       </c>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="22">
+      <c r="AH6" s="21">
         <f>($K6*$L6+$M6*$N6+$O6*$P6+$Q6*$R6+$S6*$T6+$U6*$V6+$W6*$X6+$Y6*$Z6)/$F6</f>
         <v>7.69301377243702</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AI6" s="21">
         <f>$G6-$AH6</f>
         <v>7.93803822756298</v>
       </c>
@@ -2070,11 +2073,11 @@
         <v>9.817541</v>
       </c>
       <c r="AG7" s="3"/>
-      <c r="AH7" s="22">
+      <c r="AH7" s="21">
         <f>$G7-$AI7</f>
         <v>4.614366</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="21">
         <f>$AF7</f>
         <v>9.817541</v>
       </c>
@@ -2185,11 +2188,11 @@
         <v>10.657163</v>
       </c>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="22">
+      <c r="AH8" s="21">
         <f>$G8-$AI8</f>
         <v>4.896498</v>
       </c>
-      <c r="AI8" s="22">
+      <c r="AI8" s="21">
         <f>$AF8</f>
         <v>10.657163</v>
       </c>
@@ -2300,11 +2303,11 @@
         <v>9.219599</v>
       </c>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="22">
+      <c r="AH9" s="21">
         <f>$G9-$AI9</f>
         <v>6.140729</v>
       </c>
-      <c r="AI9" s="22">
+      <c r="AI9" s="21">
         <f>$AF9</f>
         <v>9.219599</v>
       </c>
@@ -2330,96 +2333,96 @@
       <c r="D10" s="14">
         <v>27634.474</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="3">
         <v>2988270442</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="3">
         <v>196237368</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="3">
         <v>15.227836</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="3">
         <v>0.065669</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="3">
         <v>15954647</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="3">
         <v>40.488773</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="3">
         <v>4070965</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="3">
         <v>24.035942</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="3">
         <v>52759333</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="3">
         <v>8.299362</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="3">
         <v>15954647</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="3">
         <v>61.740359</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="3">
         <v>7241147</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="3">
         <v>78.776917</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="3">
         <v>116211273</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="3">
         <v>9.987555</v>
       </c>
-      <c r="U10" s="17">
-        <v>2</v>
-      </c>
-      <c r="V10" s="17">
+      <c r="U10" s="3">
+        <v>2</v>
+      </c>
+      <c r="V10" s="3">
         <v>12</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="3">
         <v>1</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="3">
         <v>4</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="3">
         <v>0</v>
       </c>
-      <c r="Z10" s="17">
+      <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="3">
         <v>199087346</v>
       </c>
-      <c r="AB10" s="17">
+      <c r="AB10" s="3">
         <v>186324317</v>
       </c>
-      <c r="AC10" s="17">
+      <c r="AC10" s="3">
         <v>93.589231</v>
       </c>
-      <c r="AD10" s="17">
+      <c r="AD10" s="3">
         <v>2.295752</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="3">
         <v>117.254697</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AF10" s="3">
         <v>9.812679</v>
       </c>
       <c r="AG10" s="3"/>
-      <c r="AH10" s="22">
+      <c r="AH10" s="21">
         <f>$G10-$AI10</f>
         <v>5.415157</v>
       </c>
-      <c r="AI10" s="22">
+      <c r="AI10" s="21">
         <f>$AF10</f>
         <v>9.812679</v>
       </c>
@@ -2431,6 +2434,121 @@
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="13">
+        <v>521.498</v>
+      </c>
+      <c r="D11" s="14">
+        <v>28048.902</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2552487121</v>
+      </c>
+      <c r="F11" s="3">
+        <v>196236697</v>
+      </c>
+      <c r="G11" s="3">
+        <v>13.007186</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.076881</v>
+      </c>
+      <c r="I11" s="3">
+        <v>15954605</v>
+      </c>
+      <c r="J11" s="3">
+        <v>35.200063</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4070925</v>
+      </c>
+      <c r="L11" s="3">
+        <v>20.982623</v>
+      </c>
+      <c r="M11" s="3">
+        <v>52759166</v>
+      </c>
+      <c r="N11" s="3">
+        <v>7.382775</v>
+      </c>
+      <c r="O11" s="3">
+        <v>15954605</v>
+      </c>
+      <c r="P11" s="3">
+        <v>55.955935</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>7241097</v>
+      </c>
+      <c r="R11" s="3">
+        <v>72.749732</v>
+      </c>
+      <c r="S11" s="3">
+        <v>116210901</v>
+      </c>
+      <c r="T11" s="3">
+        <v>9.44948</v>
+      </c>
+      <c r="U11" s="3">
+        <v>2</v>
+      </c>
+      <c r="V11" s="3">
+        <v>20</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>237710529</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>224725141</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>94.537311</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>4.930663</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>101.971707</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>10.501061</v>
+      </c>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="21">
+        <f>$G11-$AI11</f>
+        <v>2.506125</v>
+      </c>
+      <c r="AI11" s="21">
+        <f>$AF11</f>
+        <v>10.501061</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>$C11*$H11</f>
+        <v>40.093287738</v>
+      </c>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>commit</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>修复流水线</t>
+  </si>
+  <si>
+    <t>de3843bc9dc17f26f318a55dfd088ffe0ec49d66</t>
+  </si>
+  <si>
+    <t>优化面积,优化主频</t>
   </si>
 </sst>
 </file>
@@ -859,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -905,6 +911,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1270,10 +1279,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1385,34 +1394,34 @@
       <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AG1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="9"/>
@@ -1502,16 +1511,16 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="21">
+      <c r="AH2" s="22">
         <f>($K2*$L2+$M2*$N2+$O2*$P2+$Q2*$R2+$S2*$T2+$U2*$V2+$W2*$X2+$Y2*$Z2)/$F2</f>
         <v>7.07904957310521</v>
       </c>
-      <c r="AI2" s="21">
+      <c r="AI2" s="22">
         <f>$G2-$AH2</f>
         <v>33.2609504268948</v>
       </c>
       <c r="AJ2" s="4">
-        <f t="shared" ref="AJ2:AJ10" si="0">$C2*$H2</f>
+        <f t="shared" ref="AJ2:AJ11" si="0">$C2*$H2</f>
         <v>11.40294</v>
       </c>
       <c r="AK2" s="4"/>
@@ -1613,11 +1622,11 @@
         <v>10.901864</v>
       </c>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="21">
+      <c r="AH3" s="22">
         <f>($K3*$L3+$M3*$N3+$O3*$P3+$Q3*$R3+$S3*$T3+$U3*$V3+$W3*$X3+$Y3*$Z3)/$F3</f>
         <v>6.77767136533549</v>
       </c>
-      <c r="AI3" s="21">
+      <c r="AI3" s="22">
         <f>$G3-$AH3</f>
         <v>11.8959886346645</v>
       </c>
@@ -1728,11 +1737,11 @@
         <v>6.946657</v>
       </c>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="21">
+      <c r="AH4" s="22">
         <f>($K4*$L4+$M4*$N4+$O4*$P4+$Q4*$R4+$S4*$T4+$U4*$V4+$W4*$X4+$Y4*$Z4)/$F4</f>
         <v>5.69982454163096</v>
       </c>
-      <c r="AI4" s="21">
+      <c r="AI4" s="22">
         <f>$G4-$AH4</f>
         <v>7.94471845836904</v>
       </c>
@@ -1843,11 +1852,11 @@
         <v>9.51075</v>
       </c>
       <c r="AG5" s="3"/>
-      <c r="AH5" s="21">
+      <c r="AH5" s="22">
         <f>($K5*$L5+$M5*$N5+$O5*$P5+$Q5*$R5+$S5*$T5+$U5*$V5+$W5*$X5+$Y5*$Z5)/$F5</f>
         <v>5.6229847445082</v>
       </c>
-      <c r="AI5" s="21">
+      <c r="AI5" s="22">
         <f>$G5-$AH5</f>
         <v>10.5062582554918</v>
       </c>
@@ -1958,11 +1967,11 @@
         <v>6.939969</v>
       </c>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="21">
+      <c r="AH6" s="22">
         <f>($K6*$L6+$M6*$N6+$O6*$P6+$Q6*$R6+$S6*$T6+$U6*$V6+$W6*$X6+$Y6*$Z6)/$F6</f>
         <v>7.69301377243702</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="AI6" s="22">
         <f>$G6-$AH6</f>
         <v>7.93803822756298</v>
       </c>
@@ -2073,11 +2082,11 @@
         <v>9.817541</v>
       </c>
       <c r="AG7" s="3"/>
-      <c r="AH7" s="21">
+      <c r="AH7" s="22">
         <f>$G7-$AI7</f>
         <v>4.614366</v>
       </c>
-      <c r="AI7" s="21">
+      <c r="AI7" s="22">
         <f>$AF7</f>
         <v>9.817541</v>
       </c>
@@ -2188,11 +2197,11 @@
         <v>10.657163</v>
       </c>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="21">
+      <c r="AH8" s="22">
         <f>$G8-$AI8</f>
         <v>4.896498</v>
       </c>
-      <c r="AI8" s="21">
+      <c r="AI8" s="22">
         <f>$AF8</f>
         <v>10.657163</v>
       </c>
@@ -2303,11 +2312,11 @@
         <v>9.219599</v>
       </c>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="21">
+      <c r="AH9" s="22">
         <f>$G9-$AI9</f>
         <v>6.140729</v>
       </c>
-      <c r="AI9" s="21">
+      <c r="AI9" s="22">
         <f>$AF9</f>
         <v>9.219599</v>
       </c>
@@ -2418,11 +2427,11 @@
         <v>9.812679</v>
       </c>
       <c r="AG10" s="3"/>
-      <c r="AH10" s="21">
+      <c r="AH10" s="22">
         <f>$G10-$AI10</f>
         <v>5.415157</v>
       </c>
-      <c r="AI10" s="21">
+      <c r="AI10" s="22">
         <f>$AF10</f>
         <v>9.812679</v>
       </c>
@@ -2533,22 +2542,137 @@
         <v>10.501061</v>
       </c>
       <c r="AG11" s="3"/>
-      <c r="AH11" s="21">
+      <c r="AH11" s="22">
         <f>$G11-$AI11</f>
         <v>2.506125</v>
       </c>
-      <c r="AI11" s="21">
+      <c r="AI11" s="22">
         <f>$AF11</f>
         <v>10.501061</v>
       </c>
       <c r="AJ11" s="4">
-        <f>$C11*$H11</f>
+        <f t="shared" si="0"/>
         <v>40.093287738</v>
       </c>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="13">
+        <v>583.405</v>
+      </c>
+      <c r="D12" s="14">
+        <v>25076.086</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2751145185</v>
+      </c>
+      <c r="F12" s="17">
+        <v>196237655</v>
+      </c>
+      <c r="G12" s="17">
+        <v>14.019456</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.071329</v>
+      </c>
+      <c r="I12" s="17">
+        <v>15954633</v>
+      </c>
+      <c r="J12" s="17">
+        <v>38.678186</v>
+      </c>
+      <c r="K12" s="17">
+        <v>4070945</v>
+      </c>
+      <c r="L12" s="17">
+        <v>25.133712</v>
+      </c>
+      <c r="M12" s="17">
+        <v>52759550</v>
+      </c>
+      <c r="N12" s="17">
+        <v>7.631216</v>
+      </c>
+      <c r="O12" s="17">
+        <v>15954633</v>
+      </c>
+      <c r="P12" s="17">
+        <v>60.757955</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>7241123</v>
+      </c>
+      <c r="R12" s="17">
+        <v>80.094804</v>
+      </c>
+      <c r="S12" s="17">
+        <v>116211401</v>
+      </c>
+      <c r="T12" s="17">
+        <v>9.930262</v>
+      </c>
+      <c r="U12" s="17">
+        <v>2</v>
+      </c>
+      <c r="V12" s="17">
+        <v>13</v>
+      </c>
+      <c r="W12" s="17">
+        <v>1</v>
+      </c>
+      <c r="X12" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>237711765</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>224726336</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>94.537322</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>5.221089</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>111.440087</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>11.308703</v>
+      </c>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="22">
+        <f>$G12-$AI12</f>
+        <v>2.710753</v>
+      </c>
+      <c r="AI12" s="22">
+        <f>$AF12</f>
+        <v>11.308703</v>
+      </c>
+      <c r="AJ12" s="4">
+        <f>$C12*$H12</f>
+        <v>41.613695245</v>
+      </c>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/npc/NPC性能评估结果.xlsx
+++ b/npc/NPC性能评估结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23230" windowHeight="12480"/>
+    <workbookView windowWidth="20030" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>commit</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>优化面积,优化主频</t>
+  </si>
+  <si>
+    <t>c938c26a56e7f6df547f7a53b912f733936a9953</t>
+  </si>
+  <si>
+    <t>优化面积</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1285,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1520,7 +1526,7 @@
         <v>33.2609504268948</v>
       </c>
       <c r="AJ2" s="4">
-        <f t="shared" ref="AJ2:AJ11" si="0">$C2*$H2</f>
+        <f t="shared" ref="AJ2:AJ12" si="0">$C2*$H2</f>
         <v>11.40294</v>
       </c>
       <c r="AK2" s="4"/>
@@ -2083,11 +2089,11 @@
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="22">
-        <f>$G7-$AI7</f>
+        <f t="shared" ref="AH7:AH12" si="1">$G7-$AI7</f>
         <v>4.614366</v>
       </c>
       <c r="AI7" s="22">
-        <f>$AF7</f>
+        <f t="shared" ref="AI7:AI12" si="2">$AF7</f>
         <v>9.817541</v>
       </c>
       <c r="AJ7" s="4">
@@ -2198,11 +2204,11 @@
       </c>
       <c r="AG8" s="3"/>
       <c r="AH8" s="22">
-        <f>$G8-$AI8</f>
+        <f t="shared" si="1"/>
         <v>4.896498</v>
       </c>
       <c r="AI8" s="22">
-        <f>$AF8</f>
+        <f t="shared" si="2"/>
         <v>10.657163</v>
       </c>
       <c r="AJ8" s="4">
@@ -2313,11 +2319,11 @@
       </c>
       <c r="AG9" s="3"/>
       <c r="AH9" s="22">
-        <f>$G9-$AI9</f>
+        <f t="shared" si="1"/>
         <v>6.140729</v>
       </c>
       <c r="AI9" s="22">
-        <f>$AF9</f>
+        <f t="shared" si="2"/>
         <v>9.219599</v>
       </c>
       <c r="AJ9" s="4">
@@ -2428,11 +2434,11 @@
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="22">
-        <f>$G10-$AI10</f>
+        <f t="shared" si="1"/>
         <v>5.415157</v>
       </c>
       <c r="AI10" s="22">
-        <f>$AF10</f>
+        <f t="shared" si="2"/>
         <v>9.812679</v>
       </c>
       <c r="AJ10" s="4">
@@ -2543,11 +2549,11 @@
       </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="22">
-        <f>$G11-$AI11</f>
+        <f t="shared" si="1"/>
         <v>2.506125</v>
       </c>
       <c r="AI11" s="22">
-        <f>$AF11</f>
+        <f t="shared" si="2"/>
         <v>10.501061</v>
       </c>
       <c r="AJ11" s="4">
@@ -2572,107 +2578,222 @@
       <c r="D12" s="14">
         <v>25076.086</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="3">
         <v>2751145185</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="3">
         <v>196237655</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="3">
         <v>14.019456</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="3">
         <v>0.071329</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="3">
         <v>15954633</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="3">
         <v>38.678186</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="3">
         <v>4070945</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="3">
         <v>25.133712</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="3">
         <v>52759550</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="3">
         <v>7.631216</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="3">
         <v>15954633</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="3">
         <v>60.757955</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="3">
         <v>7241123</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="3">
         <v>80.094804</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="3">
         <v>116211401</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="3">
         <v>9.930262</v>
       </c>
-      <c r="U12" s="17">
-        <v>2</v>
-      </c>
-      <c r="V12" s="17">
+      <c r="U12" s="3">
+        <v>2</v>
+      </c>
+      <c r="V12" s="3">
         <v>13</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="3">
         <v>1</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="3">
         <v>4</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="3">
         <v>0</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="3">
         <v>0</v>
       </c>
-      <c r="AA12" s="17">
+      <c r="AA12" s="3">
         <v>237711765</v>
       </c>
-      <c r="AB12" s="17">
+      <c r="AB12" s="3">
         <v>224726336</v>
       </c>
-      <c r="AC12" s="17">
+      <c r="AC12" s="3">
         <v>94.537322</v>
       </c>
-      <c r="AD12" s="17">
+      <c r="AD12" s="3">
         <v>5.221089</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AE12" s="3">
         <v>111.440087</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AF12" s="3">
         <v>11.308703</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="22">
-        <f>$G12-$AI12</f>
+        <f t="shared" si="1"/>
         <v>2.710753</v>
       </c>
       <c r="AI12" s="22">
-        <f>$AF12</f>
+        <f t="shared" si="2"/>
         <v>11.308703</v>
       </c>
       <c r="AJ12" s="4">
-        <f>$C12*$H12</f>
+        <f t="shared" si="0"/>
         <v>41.613695245</v>
       </c>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="50" customHeight="1" spans="1:40">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13">
+        <v>588.299</v>
+      </c>
+      <c r="D13" s="14">
+        <v>24603.67</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2612122069</v>
+      </c>
+      <c r="F13" s="17">
+        <v>196236598</v>
+      </c>
+      <c r="G13" s="17">
+        <v>13.311085</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.075125</v>
+      </c>
+      <c r="I13" s="17">
+        <v>15954626</v>
+      </c>
+      <c r="J13" s="17">
+        <v>38.891547</v>
+      </c>
+      <c r="K13" s="17">
+        <v>4070915</v>
+      </c>
+      <c r="L13" s="17">
+        <v>24.925305</v>
+      </c>
+      <c r="M13" s="17">
+        <v>52759159</v>
+      </c>
+      <c r="N13" s="17">
+        <v>7.662957</v>
+      </c>
+      <c r="O13" s="17">
+        <v>15954626</v>
+      </c>
+      <c r="P13" s="17">
+        <v>61.03234</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>7241093</v>
+      </c>
+      <c r="R13" s="17">
+        <v>79.501038</v>
+      </c>
+      <c r="S13" s="17">
+        <v>116210802</v>
+      </c>
+      <c r="T13" s="17">
+        <v>10.464496</v>
+      </c>
+      <c r="U13" s="17">
+        <v>2</v>
+      </c>
+      <c r="V13" s="17">
+        <v>13</v>
+      </c>
+      <c r="W13" s="17">
+        <v>1</v>
+      </c>
+      <c r="X13" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>237975093</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>225220224</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>94.64025</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>4.989961</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>111.69348</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>10.976451</v>
+      </c>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="22">
+        <f>$G13-$AI13</f>
+        <v>2.334634</v>
+      </c>
+      <c r="AI13" s="22">
+        <f>$AF13</f>
+        <v>10.976451</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>$C13*$H13</f>
+        <v>44.195962375</v>
+      </c>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
